--- a/Data/swaption elastic 0.75 hedge.xlsx
+++ b/Data/swaption elastic 0.75 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5616.0510950859</v>
+        <v>-29138.35765726884</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2316.962047395889</v>
+        <v>-57492.97960249255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>593.1014416118225</v>
+        <v>-4444.547143951813</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-395.0689294317419</v>
+        <v>3094.936177779083</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-1589.276338292256</v>
+        <v>9165.636827829059</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-711.1769977794617</v>
+        <v>80.45267315468355</v>
       </c>
     </row>
   </sheetData>
